--- a/MatLAB/Datalogging/Turn Test/circuit_1_inner_180deg.xlsx
+++ b/MatLAB/Datalogging/Turn Test/circuit_1_inner_180deg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Desktop\Racecar-Control-Firmware\MatLAB\Datalogging\Turn Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{684CA632-E736-46AC-9B19-ADC06AF11A94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8412E534-4C43-48C7-A145-96C8361EE216}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{B55CD516-60EC-427B-AA7F-322B72B6C5B6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>Test #1</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Test #4</t>
+  </si>
+  <si>
+    <t>MAX - Difference</t>
+  </si>
+  <si>
+    <t>MIN - Difference</t>
+  </si>
+  <si>
+    <t>AVG - difference</t>
+  </si>
+  <si>
+    <t>IN:</t>
+  </si>
+  <si>
+    <t>OUT:</t>
   </si>
 </sst>
 </file>
@@ -142,6 +157,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -150,10 +169,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,24 +484,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE70BDCC-08CE-496B-9DE9-D31189FC642A}">
-  <dimension ref="B2:J55"/>
+  <dimension ref="B2:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -499,11 +519,11 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -517,7 +537,7 @@
         <f>D4-C4</f>
         <v>5</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <f>D5-D4</f>
         <v>49</v>
       </c>
@@ -533,8 +553,17 @@
         <f>I5-I4</f>
         <v>41.666666666666664</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -548,7 +577,7 @@
         <f t="shared" ref="E5:E11" si="0">D5-C5</f>
         <v>12</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="3"/>
       <c r="H5">
         <f>4*20/1.92</f>
         <v>41.666666666666671</v>
@@ -561,8 +590,21 @@
         <f t="shared" ref="J5:J22" si="2">I6-I5</f>
         <v>91.145833333333343</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <f>(E4+E6+E8+E10)/4</f>
+        <v>7.75</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -576,7 +618,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <f t="shared" ref="F6" si="3">D7-D6</f>
         <v>46</v>
       </c>
@@ -592,8 +634,21 @@
         <f t="shared" si="2"/>
         <v>41.666666666666657</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <f>(E5+E7+E9+E11)/4</f>
+        <v>13.5</v>
+      </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -607,7 +662,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="3"/>
       <c r="H7">
         <f>4*20/1.92</f>
         <v>41.666666666666671</v>
@@ -621,7 +676,7 @@
         <v>18.229166666666657</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -635,7 +690,7 @@
         <f>D8-C8</f>
         <v>8</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <f t="shared" ref="F8" si="4">D9-D8</f>
         <v>48</v>
       </c>
@@ -651,8 +706,21 @@
         <f t="shared" si="2"/>
         <v>72.916666666666657</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <f>(E26+E28+E30+E32)/4</f>
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -666,9 +734,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="3"/>
       <c r="H9">
-        <f t="shared" ref="H9:H23" si="5">4*35/1.92</f>
+        <f t="shared" ref="H9" si="5">4*35/1.92</f>
         <v>72.916666666666671</v>
       </c>
       <c r="I9">
@@ -679,8 +747,21 @@
         <f t="shared" si="2"/>
         <v>41.666666666666686</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <f>(E27+E29+E31+E33)/4</f>
+        <v>13.5</v>
+      </c>
+      <c r="N9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -694,12 +775,12 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <f t="shared" ref="F10" si="6">D11-D10</f>
         <v>47</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H23" si="7">4*20/1.92</f>
+        <f t="shared" ref="H10" si="7">4*20/1.92</f>
         <v>41.666666666666671</v>
       </c>
       <c r="I10">
@@ -711,7 +792,7 @@
         <v>91.145833333333371</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -725,9 +806,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="3"/>
       <c r="H11">
-        <f t="shared" ref="H11:H23" si="8">5*35/1.92</f>
+        <f t="shared" ref="H11" si="8">5*35/1.92</f>
         <v>91.145833333333343</v>
       </c>
       <c r="I11">
@@ -738,10 +819,23 @@
         <f t="shared" si="2"/>
         <v>41.666666666666686</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <f>(E48+E50+E52+E54)/4</f>
+        <v>8.5</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H12">
-        <f t="shared" ref="H12:H23" si="9">4*20/1.92</f>
+        <f t="shared" ref="H12" si="9">4*20/1.92</f>
         <v>41.666666666666671</v>
       </c>
       <c r="I12">
@@ -752,17 +846,30 @@
         <f t="shared" si="2"/>
         <v>18.229166666666686</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <f>(E49+E51+E53+E55)/4</f>
+        <v>14.25</v>
+      </c>
+      <c r="N12">
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
       <c r="H13">
-        <f t="shared" ref="H13:H23" si="10">1*35/1.92</f>
+        <f t="shared" ref="H13" si="10">1*35/1.92</f>
         <v>18.229166666666668</v>
       </c>
       <c r="I13">
@@ -774,7 +881,7 @@
         <v>72.916666666666629</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -787,11 +894,11 @@
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H23" si="11">4*35/1.92</f>
+        <f t="shared" ref="H14" si="11">4*35/1.92</f>
         <v>72.916666666666671</v>
       </c>
       <c r="I14">
@@ -802,8 +909,17 @@
         <f t="shared" si="2"/>
         <v>41.666666666666629</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -817,12 +933,12 @@
         <f>D15-C15</f>
         <v>9</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <f>D16-D15</f>
         <v>48</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H23" si="12">4*20/1.92</f>
+        <f t="shared" ref="H15" si="12">4*20/1.92</f>
         <v>41.666666666666671</v>
       </c>
       <c r="I15">
@@ -833,8 +949,17 @@
         <f t="shared" si="2"/>
         <v>91.145833333333371</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>16</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -845,12 +970,12 @@
         <v>130</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:E22" si="14">D16-C16</f>
+        <f t="shared" ref="E16:E18" si="14">D16-C16</f>
         <v>15</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="3"/>
       <c r="H16">
-        <f t="shared" ref="H16:H23" si="15">5*35/1.92</f>
+        <f t="shared" ref="H16" si="15">5*35/1.92</f>
         <v>91.145833333333343</v>
       </c>
       <c r="I16">
@@ -876,12 +1001,12 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <f t="shared" ref="F17" si="16">D18-D17</f>
         <v>48</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H23" si="17">4*20/1.92</f>
+        <f t="shared" ref="H17" si="17">4*20/1.92</f>
         <v>41.666666666666671</v>
       </c>
       <c r="I17">
@@ -907,9 +1032,9 @@
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="3"/>
       <c r="H18">
-        <f t="shared" ref="H18:H23" si="18">1*35/1.92</f>
+        <f t="shared" ref="H18" si="18">1*35/1.92</f>
         <v>18.229166666666668</v>
       </c>
       <c r="I18">
@@ -935,12 +1060,12 @@
         <f>D19-C19</f>
         <v>12</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <f t="shared" ref="F19" si="19">D20-D19</f>
         <v>49</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H23" si="20">4*35/1.92</f>
+        <f t="shared" ref="H19" si="20">4*35/1.92</f>
         <v>72.916666666666671</v>
       </c>
       <c r="I19">
@@ -966,9 +1091,9 @@
         <f t="shared" ref="E20:E22" si="21">D20-C20</f>
         <v>20</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="3"/>
       <c r="H20">
-        <f t="shared" ref="H20:H23" si="22">4*20/1.92</f>
+        <f t="shared" ref="H20" si="22">4*20/1.92</f>
         <v>41.666666666666671</v>
       </c>
       <c r="I20">
@@ -994,12 +1119,12 @@
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <f t="shared" ref="F21" si="23">D22-D21</f>
         <v>48</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H23" si="24">5*35/1.92</f>
+        <f t="shared" ref="H21" si="24">5*35/1.92</f>
         <v>91.145833333333343</v>
       </c>
       <c r="I21">
@@ -1025,9 +1150,9 @@
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="3"/>
       <c r="H22">
-        <f t="shared" ref="H22:H23" si="25">4*20/1.92</f>
+        <f t="shared" ref="H22" si="25">4*20/1.92</f>
         <v>41.666666666666671</v>
       </c>
       <c r="I22">
@@ -1053,10 +1178,10 @@
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -1071,7 +1196,7 @@
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1089,7 +1214,7 @@
         <f>D26-C26</f>
         <v>5</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <f>D27-D26</f>
         <v>48</v>
       </c>
@@ -1105,10 +1230,10 @@
         <v>126</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:E33" si="28">D27-C27</f>
+        <f t="shared" ref="E27:E29" si="28">D27-C27</f>
         <v>11</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
@@ -1124,7 +1249,7 @@
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <f t="shared" ref="F28" si="29">D29-D28</f>
         <v>46</v>
       </c>
@@ -1143,7 +1268,7 @@
         <f t="shared" si="28"/>
         <v>12</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
@@ -1159,7 +1284,7 @@
         <f>D30-C30</f>
         <v>8</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <f t="shared" ref="F30" si="30">D31-D30</f>
         <v>48</v>
       </c>
@@ -1178,7 +1303,7 @@
         <f t="shared" ref="E31:E33" si="31">D31-C31</f>
         <v>15</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
@@ -1194,7 +1319,7 @@
         <f t="shared" si="31"/>
         <v>11</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <f t="shared" ref="F32" si="32">D33-D32</f>
         <v>47</v>
       </c>
@@ -1213,16 +1338,16 @@
         <f t="shared" si="31"/>
         <v>16</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -1237,7 +1362,7 @@
       <c r="E36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1255,7 +1380,7 @@
         <f>D37-C37</f>
         <v>5</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <f>D38-D37</f>
         <v>48</v>
       </c>
@@ -1271,10 +1396,10 @@
         <v>126</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ref="E38:E44" si="33">D38-C38</f>
+        <f t="shared" ref="E38:E40" si="33">D38-C38</f>
         <v>11</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
@@ -1290,7 +1415,7 @@
         <f t="shared" si="33"/>
         <v>8</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <f t="shared" ref="F39" si="34">D40-D39</f>
         <v>46</v>
       </c>
@@ -1309,7 +1434,7 @@
         <f t="shared" si="33"/>
         <v>12</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
@@ -1325,7 +1450,7 @@
         <f>D41-C41</f>
         <v>8</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <f t="shared" ref="F41" si="35">D42-D41</f>
         <v>48</v>
       </c>
@@ -1344,7 +1469,7 @@
         <f t="shared" ref="E42:E44" si="36">D42-C42</f>
         <v>15</v>
       </c>
-      <c r="F42" s="6"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
@@ -1360,7 +1485,7 @@
         <f t="shared" si="36"/>
         <v>11</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <f t="shared" ref="F43" si="37">D44-D43</f>
         <v>47</v>
       </c>
@@ -1379,16 +1504,16 @@
         <f t="shared" si="36"/>
         <v>16</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
@@ -1403,7 +1528,7 @@
       <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1421,7 +1546,7 @@
         <f>D48-C48</f>
         <v>6</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <f>D49-D48</f>
         <v>47</v>
       </c>
@@ -1437,10 +1562,10 @@
         <v>126</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:E55" si="38">D49-C49</f>
+        <f t="shared" ref="E49:E51" si="38">D49-C49</f>
         <v>11</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
@@ -1456,7 +1581,7 @@
         <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <f t="shared" ref="F50" si="39">D51-D50</f>
         <v>47</v>
       </c>
@@ -1475,7 +1600,7 @@
         <f t="shared" si="38"/>
         <v>13</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
@@ -1491,7 +1616,7 @@
         <f>D52-C52</f>
         <v>9</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <f t="shared" ref="F52" si="40">D53-D52</f>
         <v>48</v>
       </c>
@@ -1510,7 +1635,7 @@
         <f t="shared" ref="E53:E55" si="41">D53-C53</f>
         <v>16</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
@@ -1526,7 +1651,7 @@
         <f t="shared" si="41"/>
         <v>11</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="3">
         <f t="shared" ref="F54" si="42">D55-D54</f>
         <v>48</v>
       </c>
@@ -1545,10 +1670,28 @@
         <f t="shared" si="41"/>
         <v>17</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F43:F44"/>
@@ -1556,24 +1699,6 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
